--- a/www/MultiLab_POD_LOC_ICC_template.xlsx
+++ b/www/MultiLab_POD_LOC_ICC_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsdc-isilon1\biob\svn\Biostats\John\ISO\WG2_interlab\PODLOD\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979871C1-77BB-4C16-B633-A9FC9E0C5557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2FAFD-D269-419C-8C8C-3A8FF1F5586B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1244,7 +1244,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect data value" error="Value must be a positive number" sqref="E2" xr:uid="{5007E8F8-429A-4C91-9BD3-04C339DA5069}">
+    <dataValidation type="decimal" operator="greaterThan" showInputMessage="1" showErrorMessage="1" errorTitle="Data validation error" error="Value must be a positive number." sqref="E2" xr:uid="{5007E8F8-429A-4C91-9BD3-04C339DA5069}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,9 +1339,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Units cannot be changed" prompt="Units must be entered in either CFU/g or CFU/mL per the instructions sheet." sqref="A2" xr:uid="{63E8B7E0-8532-478F-8721-DF510DFF1FD5}"/>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect data value" error="Value must be a positive number" sqref="C2:M2" xr:uid="{6873E256-F39D-4454-A427-E4BF8C4E2BF0}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data validation error" error="Value must be a non-negative number." sqref="C2:M2" xr:uid="{6873E256-F39D-4454-A427-E4BF8C4E2BF0}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Data validation error" error="The first inoculum level must be zero." sqref="B2" xr:uid="{071CC68B-7628-4281-B15E-F19FF6BAED50}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1359,7 +1362,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
